--- a/exec/enter_vpn_windows/matrix_enter/server list/server_list.xlsx
+++ b/exec/enter_vpn_windows/matrix_enter/server list/server_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9643340-46E4-42BF-89BA-87A3071F63AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6042D1-9301-4060-A99D-5BA72A93180C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -354,7 +354,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -364,7 +364,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4E2FC2-A621-4FFF-B77A-4982902821FB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -421,7 +421,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -431,7 +431,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CADC553A-8397-4635-99DF-B6C49D7338FA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -488,7 +488,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -498,7 +498,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4908E06-EBF8-4443-8570-14DD9AE80244}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -555,7 +555,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -565,7 +565,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BD37B8-7A7E-4DDB-83B2-3D9E94D869ED}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -622,7 +622,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -632,7 +632,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC87F95-53EE-4D09-AE1F-FD907B25D1DE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -689,7 +689,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -699,7 +699,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830B0A2B-993E-4417-8432-1C679D6CFEFA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -756,7 +756,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -766,7 +766,7 @@
                   <a14:compatExt spid="_x0000_s1031"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C99E86-FAF1-4B2A-8EAD-3468E1242181}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -823,7 +823,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -833,7 +833,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E369736-97E1-45DA-8793-2BB492DCD40B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -890,7 +890,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -900,7 +900,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36BDE244-EF6F-43D6-A6FE-17AFB456DBE2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -957,7 +957,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -967,7 +967,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0150890-049D-4382-A332-60B19F29802A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1024,7 +1024,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1034,7 +1034,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFA11BD0-960E-4E2D-B924-1AB001EB08CE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1091,7 +1091,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1101,7 +1101,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF4836A-F8B0-4FFD-8137-4E323E3B6AC3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1158,7 +1158,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1168,7 +1168,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855D1847-6A60-43A5-87AF-9925986C2274}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1225,7 +1225,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1235,7 +1235,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FCD4E27-8C0E-4035-988B-AEDE9E66A037}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1292,7 +1292,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1302,7 +1302,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56E0702-A193-4BE1-ACFD-24C302303449}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1359,7 +1359,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1369,7 +1369,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C2C8EA4-A54F-4626-A887-B352A365912E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1426,7 +1426,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1436,7 +1436,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7850F003-EC08-410D-AF71-FA2BB5F80853}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1493,7 +1493,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1503,7 +1503,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0550E44D-8CE6-4570-92C9-9D4A12D6DEC0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1560,7 +1560,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1570,7 +1570,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD1CE06-3F01-4ABA-937A-5789F769FC4D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1627,7 +1627,7 @@
           <xdr:col>6</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1637,7 +1637,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF13502-6E9F-450E-B1D9-30F7E9841B3E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1694,7 +1694,7 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1704,7 +1704,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0E1D286-C812-4EAE-BDED-20F44B94C6D1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1761,7 +1761,7 @@
           <xdr:col>8</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1771,7 +1771,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D82D3-00E0-4917-A42E-E0AC28ECF2C6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1828,7 +1828,7 @@
           <xdr:col>9</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1838,7 +1838,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97F5CBC-8708-4826-96BF-822EF84849DB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1895,7 +1895,7 @@
           <xdr:col>10</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1905,7 +1905,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC88B540-559F-4794-B3DB-7ADC1A502BB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1962,7 +1962,7 @@
           <xdr:col>11</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1972,7 +1972,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BD023B-91FA-4880-8C6D-54FEC8A7C0F7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2029,7 +2029,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2039,7 +2039,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35E02955-EE02-44FA-B1E4-C0CF14C2E8F0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2096,7 +2096,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2106,7 +2106,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4174C7C4-55DB-4007-8375-D760B993A9C2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2163,7 +2163,7 @@
           <xdr:col>12</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2173,7 +2173,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FC250CB-8D6A-4602-BDAE-73074D636F71}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2230,7 +2230,7 @@
           <xdr:col>13</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2240,7 +2240,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6389F20-A16A-452E-AD12-432038E573A5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2297,7 +2297,7 @@
           <xdr:col>14</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>38100</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2307,7 +2307,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EA0468-1949-47DC-9B90-1FC9C7ED1637}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2364,7 +2364,7 @@
         <xdr:cNvPr id="32" name="Picture 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39C21A34-D0A3-4073-94F8-CD616044394A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2420,7 +2420,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2430,7 +2430,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E8587B-23BC-494C-A588-148A759D7BFF}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2487,7 +2487,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>561975</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2497,7 +2497,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{548497CA-E3A9-4C48-A793-C7F452BC1512}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2810,7 +2810,7 @@
   <dimension ref="B1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +2862,7 @@
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3">
-        <v>45321</v>
+        <v>45329</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
